--- a/teaching/traditional_assets/database/data/sweden/sweden_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/sweden/sweden_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.123</v>
+        <v>0.133</v>
       </c>
       <c r="E2">
-        <v>0.204</v>
+        <v>0.22</v>
       </c>
       <c r="G2">
-        <v>-0.002414494951510556</v>
+        <v>0.01199221154088401</v>
       </c>
       <c r="H2">
-        <v>-0.002414494951510556</v>
+        <v>-0.001288478911055365</v>
       </c>
       <c r="I2">
-        <v>0.008106982364453402</v>
+        <v>-0.001624995051233233</v>
       </c>
       <c r="J2">
-        <v>0.006885434165244438</v>
+        <v>-0.001399811901259589</v>
       </c>
       <c r="K2">
-        <v>40.23999999999999</v>
+        <v>223.17</v>
       </c>
       <c r="L2">
-        <v>0.2676564100517486</v>
+        <v>0.4016059198047847</v>
       </c>
       <c r="M2">
-        <v>32.61</v>
+        <v>3689.881</v>
       </c>
       <c r="N2">
-        <v>0.01947679627306934</v>
+        <v>0.4384359096531492</v>
       </c>
       <c r="O2">
-        <v>0.8103876739562625</v>
+        <v>16.53394721512748</v>
       </c>
       <c r="P2">
-        <v>32.61</v>
+        <v>3689.881</v>
       </c>
       <c r="Q2">
-        <v>0.01947679627306934</v>
+        <v>0.4384359096531492</v>
       </c>
       <c r="R2">
-        <v>0.8103876739562625</v>
+        <v>16.53394721512748</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,70 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>249.634</v>
+        <v>364.83</v>
       </c>
       <c r="V2">
-        <v>0.1490975332974975</v>
+        <v>0.04334952073488506</v>
       </c>
       <c r="W2">
-        <v>0.125643666323378</v>
+        <v>0.2973182262797522</v>
       </c>
       <c r="X2">
-        <v>0.04225482329488078</v>
+        <v>0.0291751072644959</v>
       </c>
       <c r="Y2">
-        <v>0.08338884302849717</v>
+        <v>0.2681431190152563</v>
       </c>
       <c r="Z2">
-        <v>-10.06635395057273</v>
+        <v>0.1377954376496809</v>
       </c>
       <c r="AA2">
-        <v>-0.0366117733298391</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04195954922478422</v>
+        <v>0.02904909240069335</v>
       </c>
       <c r="AC2">
-        <v>-0.07857132255462332</v>
+        <v>-0.03202441581140694</v>
       </c>
       <c r="AD2">
-        <v>23.22</v>
+        <v>5762.5</v>
       </c>
       <c r="AE2">
-        <v>14.81090028681673</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>38.03090028681673</v>
+        <v>5762.5</v>
       </c>
       <c r="AG2">
-        <v>-211.6030997131833</v>
+        <v>5397.67</v>
       </c>
       <c r="AH2">
-        <v>0.02221001809898223</v>
+        <v>0.4064249346369964</v>
       </c>
       <c r="AI2">
-        <v>0.16094949166749</v>
+        <v>0.8859373870958319</v>
       </c>
       <c r="AJ2">
-        <v>-0.1446664033209413</v>
+        <v>0.3907481568995373</v>
       </c>
       <c r="AK2">
-        <v>15.85861638312683</v>
+        <v>0.8791594864795312</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AM2">
-        <v>-0.005</v>
+        <v>0.003</v>
       </c>
       <c r="AN2">
-        <v>5.548387096774194</v>
+        <v>-6402.777777777777</v>
+      </c>
+      <c r="AO2">
+        <v>-301</v>
       </c>
       <c r="AP2">
-        <v>-50.56226994341297</v>
+        <v>-5997.411111111111</v>
       </c>
       <c r="AQ2">
-        <v>61.2</v>
+        <v>-301</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mangold Fondkommission AB (OM:MANG)</t>
+          <t>Avanza Bank Holding AB (publ) (OM:AZA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,10 +725,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0708</v>
+        <v>0.186</v>
       </c>
       <c r="E3">
-        <v>0.304</v>
+        <v>0.232</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,34 +737,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01696889948285423</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01193674308449056</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.22</v>
+        <v>115.9</v>
       </c>
       <c r="L3">
-        <v>0.08133333333333333</v>
+        <v>0.4632294164668266</v>
       </c>
       <c r="M3">
-        <v>0.21</v>
+        <v>39.5</v>
       </c>
       <c r="N3">
-        <v>0.004233870967741935</v>
+        <v>0.008985236914537885</v>
       </c>
       <c r="O3">
-        <v>0.1721311475409836</v>
+        <v>0.3408110440034512</v>
       </c>
       <c r="P3">
-        <v>0.21</v>
+        <v>39.5</v>
       </c>
       <c r="Q3">
-        <v>0.004233870967741935</v>
+        <v>0.008985236914537885</v>
       </c>
       <c r="R3">
-        <v>0.1721311475409836</v>
+        <v>0.3408110440034512</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,67 +773,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>172.1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.03914833602511317</v>
       </c>
       <c r="W3">
-        <v>0.125643666323378</v>
+        <v>0.6194548369855692</v>
       </c>
       <c r="X3">
-        <v>0.0442197381899546</v>
+        <v>0.0290978107880785</v>
       </c>
       <c r="Y3">
-        <v>0.08142392813342336</v>
+        <v>0.5903570261974908</v>
       </c>
       <c r="Z3">
-        <v>1.06214748582103</v>
+        <v>-5.900943396226414</v>
       </c>
       <c r="AA3">
-        <v>0.01267858165608321</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.04222932946840035</v>
+        <v>0.02899753309667824</v>
       </c>
       <c r="AC3">
-        <v>-0.02955074781231714</v>
+        <v>-0.02899753309667824</v>
       </c>
       <c r="AD3">
-        <v>3.82</v>
+        <v>31.7</v>
       </c>
       <c r="AE3">
-        <v>2.612332538785933</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>6.432332538785933</v>
+        <v>31.7</v>
       </c>
       <c r="AG3">
-        <v>6.432332538785933</v>
+        <v>-140.4</v>
       </c>
       <c r="AH3">
-        <v>0.114796801192123</v>
+        <v>0.007159311622024481</v>
       </c>
       <c r="AI3">
-        <v>0.3914436689741657</v>
+        <v>0.09789993823347745</v>
       </c>
       <c r="AJ3">
-        <v>0.114796801192123</v>
+        <v>-0.03299104730126654</v>
       </c>
       <c r="AK3">
-        <v>0.3914436689741657</v>
+        <v>-0.9255108767303889</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>4.916344916344916</v>
-      </c>
-      <c r="AP3">
-        <v>8.278420255837752</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Avanza Bank Holding AB (publ) (OM:AZA)</t>
+          <t>Mangold Fondkommission AB (OM:MANG)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,11 +847,11 @@
         </is>
       </c>
       <c r="D4">
+        <v>0.035</v>
+      </c>
+      <c r="E4">
         <v>0.123</v>
       </c>
-      <c r="E4">
-        <v>0.104</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -862,34 +859,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.009388665560930081</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.007928879496295145</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>39.3</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
-        <v>0.2904656319290465</v>
+        <v>0.1445086705202312</v>
       </c>
       <c r="M4">
-        <v>32.4</v>
+        <v>0.381</v>
       </c>
       <c r="N4">
-        <v>0.02007932573128408</v>
+        <v>0.004369266055045872</v>
       </c>
       <c r="O4">
-        <v>0.8244274809160306</v>
+        <v>0.1524</v>
       </c>
       <c r="P4">
-        <v>32.4</v>
+        <v>0.381</v>
       </c>
       <c r="Q4">
-        <v>0.02007932573128408</v>
+        <v>0.004369266055045872</v>
       </c>
       <c r="R4">
-        <v>0.8244274809160306</v>
+        <v>0.1524</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -898,67 +895,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>248.9</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.1542513634110065</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.2286212914485166</v>
+        <v>0.25</v>
       </c>
       <c r="X4">
-        <v>0.04225482329488078</v>
+        <v>0.02925240374091331</v>
       </c>
       <c r="Y4">
-        <v>0.1863664681536358</v>
+        <v>0.2207475962590867</v>
       </c>
       <c r="Z4">
-        <v>-4.617521725099536</v>
+        <v>1.251808972503618</v>
       </c>
       <c r="AA4">
-        <v>-0.0366117733298391</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04195954922478422</v>
+        <v>0.02910065170470846</v>
       </c>
       <c r="AC4">
-        <v>-0.07857132255462332</v>
+        <v>-0.02910065170470846</v>
       </c>
       <c r="AD4">
-        <v>19.4</v>
+        <v>1.5</v>
       </c>
       <c r="AE4">
-        <v>12.1985677480308</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>31.5985677480308</v>
+        <v>1.5</v>
       </c>
       <c r="AG4">
-        <v>-217.3014322519692</v>
+        <v>1.5</v>
       </c>
       <c r="AH4">
-        <v>0.0192065373551129</v>
+        <v>0.01691093573844419</v>
       </c>
       <c r="AI4">
-        <v>0.1444845664670125</v>
+        <v>0.1013513513513513</v>
       </c>
       <c r="AJ4">
-        <v>-0.155626767276884</v>
+        <v>0.01691093573844419</v>
       </c>
       <c r="AK4">
-        <v>7.195070433714302</v>
+        <v>0.1013513513513513</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>5.22911051212938</v>
-      </c>
-      <c r="AP4">
-        <v>-58.57181462317229</v>
       </c>
     </row>
     <row r="5">
@@ -969,121 +960,243 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Nordnet AB (publ) (OM:SAVE)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.133</v>
+      </c>
+      <c r="E5">
+        <v>0.22</v>
+      </c>
+      <c r="G5">
+        <v>0.02558945908460472</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>105.7</v>
+      </c>
+      <c r="L5">
+        <v>0.3665048543689321</v>
+      </c>
+      <c r="M5">
+        <v>3650</v>
+      </c>
+      <c r="N5">
+        <v>0.9287768136593806</v>
+      </c>
+      <c r="O5">
+        <v>34.53169347209082</v>
+      </c>
+      <c r="P5">
+        <v>3650</v>
+      </c>
+      <c r="Q5">
+        <v>0.9287768136593806</v>
+      </c>
+      <c r="R5">
+        <v>34.53169347209082</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>192.6</v>
+      </c>
+      <c r="V5">
+        <v>0.04900888063309498</v>
+      </c>
+      <c r="W5">
+        <v>0.3446364525595044</v>
+      </c>
+      <c r="X5">
+        <v>0.05154447442962004</v>
+      </c>
+      <c r="Y5">
+        <v>0.2930919781298844</v>
+      </c>
+      <c r="Z5">
+        <v>0.07101873968824644</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0.03494817991810541</v>
+      </c>
+      <c r="AC5">
+        <v>-0.03494817991810541</v>
+      </c>
+      <c r="AD5">
+        <v>5729.3</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>5729.3</v>
+      </c>
+      <c r="AG5">
+        <v>5536.7</v>
+      </c>
+      <c r="AH5">
+        <v>0.5931443597813483</v>
+      </c>
+      <c r="AI5">
+        <v>0.9297038539553752</v>
+      </c>
+      <c r="AJ5">
+        <v>0.5848667948365833</v>
+      </c>
+      <c r="AK5">
+        <v>0.9274359704517664</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>FX International AB (publ) (NGM:FXI)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.469</v>
-      </c>
-      <c r="G5">
-        <v>-8.642857142857142</v>
-      </c>
-      <c r="H5">
-        <v>-8.642857142857142</v>
-      </c>
-      <c r="I5">
-        <v>-7.285714285714285</v>
-      </c>
-      <c r="J5">
-        <v>-7.285714285714285</v>
-      </c>
-      <c r="K5">
-        <v>-0.28</v>
-      </c>
-      <c r="L5">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="M5">
+      <c r="G6">
+        <v>3.475728155339806</v>
+      </c>
+      <c r="H6">
+        <v>3.475728155339806</v>
+      </c>
+      <c r="I6">
+        <v>4.383495145631068</v>
+      </c>
+      <c r="J6">
+        <v>4.383495145631068</v>
+      </c>
+      <c r="K6">
+        <v>-0.93</v>
+      </c>
+      <c r="L6">
+        <v>4.514563106796117</v>
+      </c>
+      <c r="M6">
         <v>-0</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>-0</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>-0</v>
       </c>
-      <c r="Q5">
+      <c r="Q6">
         <v>-0</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.734</v>
-      </c>
-      <c r="V5">
-        <v>0.06612612612612613</v>
-      </c>
-      <c r="W5">
-        <v>-0.4620462046204621</v>
-      </c>
-      <c r="X5">
-        <v>0.04190534344985802</v>
-      </c>
-      <c r="Y5">
-        <v>-0.5039515480703201</v>
-      </c>
-      <c r="Z5">
-        <v>0.1721311475409836</v>
-      </c>
-      <c r="AA5">
-        <v>-1.254098360655738</v>
-      </c>
-      <c r="AB5">
-        <v>0.04190534344985802</v>
-      </c>
-      <c r="AC5">
-        <v>-1.296003704105596</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>-0.734</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>-0.07080841211653482</v>
-      </c>
-      <c r="AK5">
-        <v>-1.723004694835681</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>-0.005</v>
-      </c>
-      <c r="AN5">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0.13</v>
+      </c>
+      <c r="V6">
+        <v>0.04626334519572954</v>
+      </c>
+      <c r="W6">
+        <v>-0.8017241379310346</v>
+      </c>
+      <c r="X6">
+        <v>0.02898623322517386</v>
+      </c>
+      <c r="Y6">
+        <v>-0.8307103711562085</v>
+      </c>
+      <c r="Z6">
+        <v>-0.4835680751173709</v>
+      </c>
+      <c r="AA6">
+        <v>-2.119718309859155</v>
+      </c>
+      <c r="AB6">
+        <v>0.02898623322517386</v>
+      </c>
+      <c r="AC6">
+        <v>-2.148704543084329</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>-0.13</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.04850746268656717</v>
+      </c>
+      <c r="AK6">
+        <v>-0.04088050314465409</v>
+      </c>
+      <c r="AL6">
+        <v>0.003</v>
+      </c>
+      <c r="AM6">
+        <v>0.003</v>
+      </c>
+      <c r="AN6">
         <v>-0</v>
       </c>
-      <c r="AP5">
-        <v>2.430463576158941</v>
-      </c>
-      <c r="AQ5">
-        <v>61.2</v>
+      <c r="AO6">
+        <v>-301</v>
+      </c>
+      <c r="AP6">
+        <v>0.1444444444444445</v>
+      </c>
+      <c r="AQ6">
+        <v>-301</v>
       </c>
     </row>
   </sheetData>
